--- a/datasets/10x_visiumhd_mouse_embryo.xlsx
+++ b/datasets/10x_visiumhd_mouse_embryo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\andpe\Documents\GitLab\scrnaseq2\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D812E0-E5F7-459E-BB06-ACC455847839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AD91B1-EB53-4465-B923-D17699ADD7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>sample</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>datasets/10x_visiumhd_mouse_embryo/binned_outputs/square_016um/filtered_feature_bc_matrix.h5</t>
+  </si>
+  <si>
+    <t>datasets/10x_visiumhd_mouse_embryo/metrics_summary.csv</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -499,6 +502,9 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
